--- a/output/google_maps_data_SPBU_Kulon_Progo.xlsx
+++ b/output/google_maps_data_SPBU_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Kulon+Progo/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.3</v>
+        <v>-7.826015</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.826015</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.225915</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.01+Sentolo/@-7.8260155,109.9375241,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afa22fcd6f3e1:0xb2f6f20ba496e257!8m2!3d-7.8260155!4d110.2259152!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11cn935jyw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -575,25 +568,24 @@
           <t>(0282) 531051</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>-7.905817</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.905817</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.07896</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.556.08+Glagah+Kulonprogo/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae390f503e993:0xd685fb76a60f476d!8m2!3d-7.9058171!4d110.0789597!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzwfj56p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -616,25 +608,24 @@
           <t>0857-2648-8938</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.3</v>
+        <v>-7.871738</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.871738</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.208097</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.55.607+Sukoreno/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb939e33076d:0x8652cf0817567fa6!8m2!3d-7.8717376!4d110.2080967!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzs6k611?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -657,25 +648,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.3</v>
+        <v>-7.867112</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.867112</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.149908</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44.556.02+Wates+Kota/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb3b0fff0d71:0x329cfd0ea516c690!8m2!3d-7.8671122!4d110.1499081!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzw588nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44.556.02+Wates+Kota/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb3b0fff0d71:0x329cfd0ea516c690!8m2!3d-7.8671122!4d110.1499081!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzw588nd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -698,25 +688,24 @@
           <t>(0274) 2890140</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.832778</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.832778</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.181015</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.11+Pengasih/@-7.9058171,109.7905686,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afaf13a43fa0b:0xc132584839f978c8!8m2!3d-7.8327785!4d110.1810147!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bw4vlk04?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,25 +724,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.796175</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.796175</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.228408</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina/@-7.7961755,109.9400173,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af0ae947a9a63:0x1c4362bd10c03157!8m2!3d-7.7961755!4d110.2284084!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwncybs2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina/@-7.7961755,109.9400173,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af0ae947a9a63:0x1c4362bd10c03157!8m2!3d-7.7961755!4d110.2284084!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwncybs2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -776,25 +764,24 @@
           <t>(0274) 6472588</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.884658</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.884658</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.050097</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.03+Temon/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae403445bb5f7:0x9aa295f7fc9bf09a!8m2!3d-7.8846585!4d110.0500973!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpmvnf1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.03+Temon/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae403445bb5f7:0x9aa295f7fc9bf09a!8m2!3d-7.8846585!4d110.0500973!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzpmvnf1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -821,25 +808,24 @@
           <t>(0274) 775300</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.890152</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.890152</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.113712</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.06+Sogan/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae49fb5324a95:0xb886eb2acee16d6!8m2!3d-7.8901518!4d110.1137124!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzwmnzx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.06+Sogan/@-7.8846585,109.7617062,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae49fb5324a95:0xb886eb2acee16d6!8m2!3d-7.8901518!4d110.1137124!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzwmnzx6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -858,25 +844,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.715362</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.715362</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.226811</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.12+Dekso/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3fb257d7509:0x74f1c8c1f61e19b6!8m2!3d-7.7153623!4d110.2268108!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h2hl7__x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -891,25 +876,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.859448</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.859448</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.152417</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Beji+44.556.18+(Kasam)/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb0a09929591:0x2665fda648e842d5!8m2!3d-7.8594477!4d110.152417!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11q8nx3p6y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -928,25 +912,24 @@
           <t>(0274) 2890644</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.87979</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.87979</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.153137</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Giripeni+44.556.13/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb47c700d673:0x464e8a1f46a770a1!8m2!3d-7.8797904!4d110.1531372!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h3wxxfjm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -965,25 +948,24 @@
           <t>0813-9079-8665</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.4</v>
+        <v>-7.950897</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.950897</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.214349</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Daendels+Barongan+Karangsewu/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd19dd869587:0xc960e7b92eb318f3!8m2!3d-7.9508967!4d110.2143485!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qyl5gn10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1002,25 +984,24 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>-7.867624</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.867624</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.180214</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.04+Ngramang/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb7337f13e69:0x4d75ea93fdeed5db!8m2!3d-7.8676243!4d110.1802144!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzxpb_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.556.04+Ngramang/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb7337f13e69:0x4d75ea93fdeed5db!8m2!3d-7.8676243!4d110.1802144!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzxpb_9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1047,25 +1028,24 @@
           <t>(0274) 2820123</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.756319</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.756319</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.211022</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.556.05+Kenteng+Nanggulan/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af118a32e2297:0x47aad16b8c2a3a04!8m2!3d-7.756319!4d110.211022!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzssky_w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1084,25 +1064,24 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.940232</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.940232</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.228138</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Bantengan,+Galur/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afddbc8788e5f:0x314c35bbdc0012e6!8m2!3d-7.9402324!4d110.2281378!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzyn0lvt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1117,25 +1096,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.1</v>
+        <v>-7.881319</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.881319</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.206309</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PENDEM/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbe486bf22dd:0xce70c830bbf95f58!8m2!3d-7.8813187!4d110.206309!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j4w19yy2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1150,25 +1128,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>3.6</v>
+      </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>-7.881257</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.881257</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.206416</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+4455615+Demangrejo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbd6b63402a7:0x9df858ad14162f82!8m2!3d-7.8812575!4d110.2064164!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11kvmxp5v3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1183,25 +1160,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.889677</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.889677</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.099474</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+Prima/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae4823053554b:0xb0f9020759721ebf!8m2!3d-7.8896768!4d110.0994741!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11bzrp1w0y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1216,25 +1192,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.1</v>
+        <v>-7.867185</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.867185</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.1497</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+44+-+55602/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb37b6781e2d:0x65f5b2e2ed863211!8m2!3d-7.8671849!4d110.1496999!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11c7vzjf3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+44+-+55602/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb37b6781e2d:0x65f5b2e2ed863211!8m2!3d-7.8671849!4d110.1496999!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11c7vzjf3w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1253,25 +1228,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.651848</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.651848</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.256507</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+ENERGY/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af50004bd637b:0x65e5cc685573f2bc!8m2!3d-7.6518476!4d110.2565066!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11y2t2cnp5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+ENERGY/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af50004bd637b:0x65e5cc685573f2bc!8m2!3d-7.6518476!4d110.2565066!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11y2t2cnp5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>20 jam lalu</t>
         </is>
@@ -1290,25 +1264,24 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.2</v>
+        <v>-7.893997</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.893997</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.217032</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd02392f75db:0xd6cc34fc8ae58a56!8m2!3d-7.893997!4d110.217032!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11twq6wds3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1327,25 +1300,24 @@
           <t>(0274) 7101977</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F24" t="n">
-        <v>3.7</v>
+        <v>-7.82606</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.82606</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.225868</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+44-55601/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afa3ca53056d1:0x6172bc991a67bcf1!8m2!3d-7.8260601!4d110.225868!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzrn_6z4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+44-55601/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afa3ca53056d1:0x6172bc991a67bcf1!8m2!3d-7.8260601!4d110.225868!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzrn_6z4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1368,25 +1340,24 @@
           <t>0877-8915-0294</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.8</v>
+        <v>-7.796134</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.796134</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.228319</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PT.Kamila+Nanggulan+Sejahtera/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af1e05b9f4e99:0x5ebe75dc429cc6c1!8m2!3d-7.7961336!4d110.2283188!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hzpcjh85?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PT.Kamila+Nanggulan+Sejahtera/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af1e05b9f4e99:0x5ebe75dc429cc6c1!8m2!3d-7.7961336!4d110.2283188!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11hzpcjh85?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1409,25 +1380,24 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>2.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>-7.879814</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.879814</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.153334</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb5ab999cd47:0x82c8affb58c2a76c!8m2!3d-7.8798143!4d110.1533343!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwndhk9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1446,25 +1416,24 @@
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-7.881258</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.881258</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.206422</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb8c078c85bf:0x7870b7a8c4212a6b!8m2!3d-7.8812577!4d110.2064223!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qg29ww3f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1479,25 +1448,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>-7.69378</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.69378</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.194235</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+TAMAN/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af379149bc7ff:0x2a563531f6625a02!8m2!3d-7.6937797!4d110.1942353!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j21b5mvg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1512,25 +1480,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.670793</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.670793</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.166311</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+PUJO+MART/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3c7c3758cd3:0x2ffbf5817c0211c6!8m2!3d-7.6707928!4d110.1663112!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11frphy_5q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1545,25 +1512,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>-7.676786</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.676786</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.172239</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+TIMAN/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af314b19afdf3:0x4e25dc733c7b118!8m2!3d-7.6767864!4d110.1722392!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j7fcbry0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1578,25 +1544,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.4</v>
+        <v>-7.760984</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.760984</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.26492</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+SPBU+4455510+Sidorejo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af71e0c33db37:0x32deaab8eea73bae!8m2!3d-7.7609836!4d110.2649198!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pzvfgck1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1611,25 +1576,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>-7.93003</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.93003</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.136735</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+Panjatan+Kulon+Progo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae3d50a12965b:0x2135c8cea93399ea!8m2!3d-7.9300303!4d110.1367354!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11mq75z0bw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1644,25 +1608,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>-7.879652</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.879652</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.153343</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Isi+Angin+Nitrogen+SPBU+Giripeni/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbc2ae48d4c3:0x39d9e6aac7abba3c!8m2!3d-7.8796522!4d110.153343!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11k_mvxs9f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1678,22 +1641,21 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.855888</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.855888</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.237274</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Sabdo+Palon/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af9c466054b95:0x488b816e4b71f9d9!8m2!3d-7.8558877!4d110.2372744!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11ptr51_82?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1708,25 +1670,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.3</v>
+        <v>-7.872935</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.872935</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.241872</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTASHOP+PT.Bayu+Kembar+Pratama+Tuksono+Sentolo+Kulon+Progo/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af941be1b0cfb:0x67933cc8f11dfb3d!8m2!3d-7.8729349!4d110.2418724!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11pc2sq7vt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1745,25 +1706,24 @@
           <t>0831-4519-8802</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.5</v>
+        <v>-7.892377</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.892377</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.270092</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pom+Mini+Ridho+Mulya/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7affb14347ffcf:0x4d6719bbc3c1867!8m2!3d-7.8923768!4d110.2700919!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qmx59glm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pom+Mini+Ridho+Mulya/@-7.7153623,109.9384197,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7affb14347ffcf:0x4d6719bbc3c1867!8m2!3d-7.8923768!4d110.2700919!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qmx59glm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1782,25 +1742,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.8</v>
+        <v>-7.886265</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.886265</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.063264</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mini+SPBU/@-7.8862648,109.7748733,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae57c01fc1b93:0x64f31fb0d6b9d6b!8m2!3d-7.8862648!4d110.0632644!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l0103g1c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1823,25 +1782,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-7.812904</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.812904</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.266961</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,109.9785703,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sChBTUEJVIEt1bG9uIFByb2dvWhIiEHNwYnUga3Vsb24gcHJvZ2-SAQtnYXNfc3RhdGlvbuABAA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+44.557.10+Candimas/@-7.8129039,109.9785703,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af9c4eea0d6c5:0xe41454d225bf9aff!8m2!3d-7.8129039!4d110.2669614!15sChBTUEJVIEt1bG9uIFByb2dvWhIiEHNwYnUga3Vsb24gcHJvZ2-SAQtnYXNfc3RhdGlvbuABAA!16s%2Fg%2F1pzwfckgm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1860,25 +1818,24 @@
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.4</v>
+        <v>-7.889838</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.889838</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.099328</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.556.10+TEMON/@-7.8898375,109.810937,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae578886e730d:0xf7fd661378dd7dc1!8m2!3d-7.8898375!4d110.0993281!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11t82jh9s1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1893,25 +1850,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.66532</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.66532</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.166819</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+PERTAMINI+SMK+KUNCUP/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3728f2e8505:0xe5f78541fed6f29c!8m2!3d-7.6653205!4d110.1668185!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j2j2nrgc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1931,22 +1887,21 @@
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.859381</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.859381</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.152295</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTAMINA/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb3aa0443d23:0xc0689f1db1fa478f!8m2!3d-7.8593808!4d110.1522947!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11jzw4vdd8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1965,25 +1920,24 @@
           <t>0822-4322-4895</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.771327</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.771327</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.184431</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Mini+dan+Toko+Kembar/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af12230ab3e71:0x1ed9a659fad875!8m2!3d-7.771327!4d110.184431!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11tjmqx4xt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1998,25 +1952,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
       <c r="F43" t="n">
-        <v>4</v>
+        <v>-7.897871</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.897871</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.178626</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+cerme+Kulon+progo/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd48e2426187:0x8bae3378b6c68861!8m2!3d-7.8978714!4d110.178626!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11np7kyw22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+cerme+Kulon+progo/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd48e2426187:0x8bae3378b6c68861!8m2!3d-7.8978714!4d110.178626!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11np7kyw22?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2040,22 +1993,21 @@
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.746653</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.746653</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.132109</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTAMINA/@-7.6653205,109.8784274,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7aee226584106b:0x500eea62612311c0!8m2!3d-7.7466531!4d110.1321087!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11l65z7m1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2074,25 +2026,24 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.3</v>
+        <v>-7.910983</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.910983</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.293768</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamina+Gas+Station+Pandak/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7aff1a8d6c947d:0x8653118630704475!8m2!3d-7.9109833!4d110.2937684!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11b6cvmv76?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2108,22 +2059,21 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-7.698241</v>
+      </c>
       <c r="G46" t="n">
-        <v>-7.698241</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.19812</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertamini+Tukharjo/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3fad46e259d:0x6301f68e7afb28ff!8m2!3d-7.6982413!4d110.1981202!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j9kjlfs0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2138,25 +2088,24 @@
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F47" t="n">
-        <v>4.3</v>
+        <v>-7.863003</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.863003</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.211378</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBE+Kosan+-+PT.+Lestari+Pelita+Graha/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afbc62145e6d1:0xfcd9716f8348016b!8m2!3d-7.8630031!4d110.2113779!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h0x9ydt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2179,25 +2128,24 @@
           <t>(021) 8511753</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.3</v>
+        <v>-7.859887</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.859887</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.23287</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mobil+Indostation+Salamrejo/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afba100baa4d7:0x60503725e275c8a3!8m2!3d-7.8598865!4d110.2328695!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11v3kc4v0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mobil+Indostation+Salamrejo/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afba100baa4d7:0x60503725e275c8a3!8m2!3d-7.8598865!4d110.2328695!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11v3kc4v0w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2216,25 +2164,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F49" t="n">
-        <v>3.9</v>
+        <v>-7.795211</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.795211</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.193122</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pertashop+AU+Tanjungharjo+Nanggulan/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af14bac5174bd:0xc76b411d5b91ee43!8m2!3d-7.7952112!4d110.1931219!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11nnkw3q23?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2249,25 +2196,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.8</v>
+        <v>-7.929567</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.929567</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.198071</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Warung+Eceran+BBM/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afdad1eea7269:0x4c70290a8cebf2ef!8m2!3d-7.9295671!4d110.1980709!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gcmp06lw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Warung+Eceran+BBM/@-7.9109833,110.0053773,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afdad1eea7269:0x4c70290a8cebf2ef!8m2!3d-7.9295671!4d110.1980709!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11gcmp06lw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2286,25 +2232,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.8</v>
+        <v>-7.802575</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.802575</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.162214</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertashop+Pendem+Sidomulyo/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af15ae1283ebd:0xc0ce490e5847dbef!8m2!3d-7.8025748!4d110.1622136!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgc0b9nq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertashop+Pendem+Sidomulyo/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af15ae1283ebd:0xc0ce490e5847dbef!8m2!3d-7.8025748!4d110.1622136!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgc0b9nq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2323,25 +2268,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F52" t="n">
-        <v>3.9</v>
+        <v>-7.771275</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.771275</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.184146</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/3DPOM+MINI+Sribit/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af056e4a8171f:0x88f41400bf9da106!8m2!3d-7.7712754!4d110.1841459!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fzfc0d4g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2360,25 +2304,24 @@
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F53" t="n">
-        <v>4.3</v>
+        <v>-7.807298</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.807298</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.291018</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.16+Balecatur/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af82ef69a9485:0x354f6a3f8143339b!8m2!3d-7.807298!4d110.2910178!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F1pztxp8nm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2397,25 +2340,24 @@
           <t>0819-0357-5601</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.922034</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.922034</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.147375</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Bensin+Pertamini/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afd7961ca0943:0xbe25cbf21e5a3b02!8m2!3d-7.9220343!4d110.1473745!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fw8yf6rr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2430,25 +2372,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.5</v>
+        <v>-7.665487</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.665487</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.148775</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+MINI+POM+5758/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af3b53f6f1d1d:0xc256d20bce6cd846!8m2!3d-7.665487!4d110.1487746!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11j7hl6bfx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2463,25 +2404,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>-7.922172</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.922172</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.135091</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PERTAMINI+BAROKAH/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae3e62faf3e5f:0x1ac76698f26594ae!8m2!3d-7.922172!4d110.135091!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11fst1yfc5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2496,25 +2436,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.5</v>
+        <v>-7.7208</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.7208</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.23931</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+JAYA/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af7b821e2c1f5:0xd7694d7d9121ca5b!8m2!3d-7.7208!4d110.2393103!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qg4lrnyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+RAFANO+PUTRA+JAYA/@-7.8025748,109.8738225,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7af7b821e2c1f5:0xd7694d7d9121ca5b!8m2!3d-7.7208!4d110.2393103!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qg4lrnyv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -2537,25 +2476,24 @@
           <t>0821-1741-1448</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.6</v>
+        <v>-7.876057</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.876057</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.007501</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Jogoresan+Pertamina+44.541.15/@-7.8760571,109.7191102,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae71484479b43:0x99bc17061bdaa313!8m2!3d-7.8760571!4d110.0075013!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qh7n7sh9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Jogoresan+Pertamina+44.541.15/@-7.8760571,109.7191102,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae71484479b43:0x99bc17061bdaa313!8m2!3d-7.8760571!4d110.0075013!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11qh7n7sh9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -2578,25 +2516,24 @@
           <t>0888-8888-8696</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.868317</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.868317</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.059441</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Warung+Pertamini+Dan+Gas+Elpiji/@-7.8760571,109.7191102,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7ae5c030050a45:0x6e3b5f4c3839c205!8m2!3d-7.8683175!4d110.0594409!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11h2tlqgtl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2615,25 +2552,24 @@
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F60" t="n">
-        <v>2.9</v>
+        <v>-7.950829</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.950829</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.214094</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pertamina/@-7.950829,109.9257029,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afdeb03658da7:0xe961aff3f2757b5!8m2!3d-7.950829!4d110.214094!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwndj0wc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pertamina/@-7.950829,109.9257029,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afdeb03658da7:0xe961aff3f2757b5!8m2!3d-7.950829!4d110.214094!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rwndj0wc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2652,25 +2588,24 @@
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>-7.83177</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.83177</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.218614</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pangkalan+Kamsi+Sentolo+Kidul/@-7.950829,109.9257029,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb8ba7937199:0x2cc9ef65ae61fc5f!8m2!3d-7.8317697!4d110.2186143!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgw_tgvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pangkalan+Kamsi+Sentolo+Kidul/@-7.950829,109.9257029,11z/data=!4m11!1m3!2m2!1sSPBU+Kulon+Progo!6e2!3m6!1s0x2e7afb8ba7937199:0x2cc9ef65ae61fc5f!8m2!3d-7.8317697!4d110.2186143!15sChBTUEJVIEt1bG9uIFByb2dvkgELZ2FzX3N0YXRpb27gAQA!16s%2Fg%2F11rgw_tgvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
